--- a/biology/Botanique/Archidium_hallii/Archidium_hallii.xlsx
+++ b/biology/Botanique/Archidium_hallii/Archidium_hallii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archidium hallii est une espèce de mousses de la famille des Archidiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mousse vivace se présente sous forme de coussinets denses et ras, avec des pousses de 3 à 10 mm de hauteur[1]. Sa couleur globale est vert pâle ou jaune-vert.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mousse vivace se présente sous forme de coussinets denses et ras, avec des pousses de 3 à 10 mm de hauteur. Sa couleur globale est vert pâle ou jaune-vert.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans deux grandes régions disjointes : en Amérique du Nord (Canada, États-Unis, Mexique) et en Amérique du Sud (Argentine, Uruguay et peut-être Brésil), mais n'a encore jamais été trouvée dans les pays de l'Amérique centrale.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxonomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archidium hallii a deux synonymes non valides : Archidium ephemeroides Müll. Hal. et Archidium lorentzii Müll. Hal. Quant à la variété Archidium hallii var. minus décrite par Renauld et Cardot en 1894, il s'agit d'un synonyme non valide d'Archidium minus (Renauld &amp; Cardot) Snider 1975[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archidium hallii a deux synonymes non valides : Archidium ephemeroides Müll. Hal. et Archidium lorentzii Müll. Hal. Quant à la variété Archidium hallii var. minus décrite par Renauld et Cardot en 1894, il s'agit d'un synonyme non valide d'Archidium minus (Renauld &amp; Cardot) Snider 1975.
 </t>
         </is>
       </c>
